--- a/Other files/Progress.xlsx
+++ b/Other files/Progress.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
   <si>
     <t>Home + drawer</t>
   </si>
@@ -216,9 +217,6 @@
     <t>logout</t>
   </si>
   <si>
-    <t>move to nav drawer?</t>
-  </si>
-  <si>
     <t>Voice search</t>
   </si>
   <si>
@@ -256,6 +254,48 @@
   </si>
   <si>
     <t>photoshop</t>
+  </si>
+  <si>
+    <t>STORE MAP</t>
+  </si>
+  <si>
+    <t>QUICK DELIVER</t>
+  </si>
+  <si>
+    <t>goes to search screen</t>
+  </si>
+  <si>
+    <t>add profile picture</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>Event Title</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description description description description</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Reward Title</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>pref</t>
+  </si>
+  <si>
+    <t>listpref</t>
   </si>
 </sst>
 </file>
@@ -265,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +343,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -419,50 +473,52 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -882,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I62"/>
+  <dimension ref="A2:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,511 +953,624 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
         <v>73</v>
       </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="C30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="C32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="30"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="20"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="18"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="19"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="19"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="19"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="19"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="19"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="19"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="19"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="19"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="19"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="19"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="18"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="19"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15" t="s">
+      <c r="C58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="19"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17" t="s">
+      <c r="C59" s="33"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="C60" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+      <c r="B62" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="18"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17" t="s">
+      <c r="C62" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="21"/>
+      <c r="B63" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A40:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A60:A62"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A19"/>
     <mergeCell ref="A20:A25"/>

--- a/Other files/Progress.xlsx
+++ b/Other files/Progress.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Hours" sheetId="4" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId2"/>
+    <sheet name="Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Phase 3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>Home + drawer</t>
   </si>
@@ -296,6 +297,105 @@
   </si>
   <si>
     <t>listpref</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Layout Item</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Button: Go online/offline</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Button: Navigate</t>
+  </si>
+  <si>
+    <t>Delivery Requests</t>
+  </si>
+  <si>
+    <t>Username/Customer name</t>
+  </si>
+  <si>
+    <t>Distance from deliverer (sort by)</t>
+  </si>
+  <si>
+    <t>Request Details</t>
+  </si>
+  <si>
+    <t>Store phone number</t>
+  </si>
+  <si>
+    <t>Store address</t>
+  </si>
+  <si>
+    <t>Products to pick up</t>
+  </si>
+  <si>
+    <t>Customer name</t>
+  </si>
+  <si>
+    <t>Customer phone</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Customer address</t>
+  </si>
+  <si>
+    <t>Products Screen</t>
+  </si>
+  <si>
+    <t>Listview with checkboxes</t>
+  </si>
+  <si>
+    <t>add release sha1 to api console</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Hours Estimated</t>
+  </si>
+  <si>
+    <t>Hours Worked</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>To Be Paid (Before Funding)</t>
+  </si>
+  <si>
+    <t>To Be Paid (After Funding)</t>
+  </si>
+  <si>
+    <t>3 - Deliverer</t>
+  </si>
+  <si>
+    <t>3 - Store</t>
+  </si>
+  <si>
+    <t>2 - bounced check</t>
   </si>
 </sst>
 </file>
@@ -438,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -484,15 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,26 +591,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,6 +903,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>12.5</v>
+      </c>
+      <c r="C2">
+        <v>13.5</v>
+      </c>
+      <c r="D2" s="28">
+        <v>250</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>4.25</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <f>15*C3</f>
+        <v>75</v>
+      </c>
+      <c r="F3" s="28">
+        <f>25*C3</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>3.75</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <f>15*C4</f>
+        <v>60</v>
+      </c>
+      <c r="F4" s="28">
+        <f>25*C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28">
+        <v>12</v>
+      </c>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -936,11 +1159,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -953,7 +1176,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -964,7 +1187,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
@@ -973,7 +1196,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
@@ -982,7 +1205,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
@@ -991,7 +1214,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
@@ -1000,7 +1223,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1232,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1241,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1250,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1038,7 +1261,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1282,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
@@ -1068,7 +1291,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1300,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1309,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1318,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1104,7 +1327,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1339,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1125,7 +1348,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="16" t="s">
         <v>34</v>
       </c>
@@ -1134,7 +1357,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1145,7 +1368,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="14" t="s">
         <v>37</v>
       </c>
@@ -1154,7 +1377,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
@@ -1163,7 +1386,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="14" t="s">
         <v>39</v>
       </c>
@@ -1175,7 +1398,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="14" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1413,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="16" t="s">
         <v>40</v>
       </c>
@@ -1202,7 +1425,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -1213,14 +1436,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1229,7 +1452,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="16" t="s">
         <v>42</v>
       </c>
@@ -1238,7 +1461,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -1250,12 +1473,12 @@
       <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="14" t="s">
         <v>44</v>
       </c>
@@ -1267,7 +1490,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="14" t="s">
         <v>28</v>
       </c>
@@ -1279,7 +1502,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="14" t="s">
         <v>45</v>
       </c>
@@ -1288,7 +1511,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="16" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1520,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -1308,7 +1531,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="14" t="s">
         <v>26</v>
       </c>
@@ -1317,7 +1540,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="14" t="s">
         <v>28</v>
       </c>
@@ -1326,14 +1549,14 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="16" t="s">
         <v>48</v>
       </c>
@@ -1342,7 +1565,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -1351,7 +1574,7 @@
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="14" t="s">
         <v>27</v>
       </c>
@@ -1361,14 +1584,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="14" t="s">
         <v>51</v>
       </c>
@@ -1378,7 +1601,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="14" t="s">
         <v>52</v>
       </c>
@@ -1388,21 +1611,21 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="14" t="s">
         <v>55</v>
       </c>
@@ -1412,7 +1635,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="14" t="s">
         <v>56</v>
       </c>
@@ -1422,7 +1645,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="14" t="s">
         <v>57</v>
       </c>
@@ -1432,7 +1655,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="14" t="s">
         <v>58</v>
       </c>
@@ -1442,7 +1665,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="14" t="s">
         <v>59</v>
       </c>
@@ -1452,7 +1675,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="14" t="s">
         <v>60</v>
       </c>
@@ -1462,7 +1685,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="14" t="s">
         <v>61</v>
       </c>
@@ -1472,7 +1695,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="16" t="s">
         <v>62</v>
       </c>
@@ -1482,44 +1705,44 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="30"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="30"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="33"/>
+      <c r="C59" s="27"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -1530,7 +1753,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="14" t="s">
         <v>79</v>
       </c>
@@ -1539,7 +1762,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="16" t="s">
         <v>69</v>
       </c>
@@ -1548,13 +1771,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1562,7 +1785,7 @@
       <c r="A64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1581,4 +1804,287 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
+      <formula1>$H$2:$H$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15">
+      <formula1>$J$2:$J$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>